--- a/Museum_database.xlsx
+++ b/Museum_database.xlsx
@@ -11,13 +11,189 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+  <si>
+    <t>Зал (помещение)</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Размер</t>
+  </si>
+  <si>
+    <t>Коммент</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Hall_id</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор зала</t>
+  </si>
+  <si>
+    <t>Hall_name</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Наименование зала</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Резервное поле</t>
+  </si>
+  <si>
+    <t>Экспонат</t>
+  </si>
+  <si>
+    <t>Artifact_id</t>
+  </si>
+  <si>
+    <t>Artifact_name</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор экспоната</t>
+  </si>
+  <si>
+    <t>Found_date</t>
+  </si>
+  <si>
+    <t>Create_date</t>
+  </si>
+  <si>
+    <t>Author_id</t>
+  </si>
+  <si>
+    <t>Category_id</t>
+  </si>
+  <si>
+    <t>Incoming_date</t>
+  </si>
+  <si>
+    <t>Outcoming_date</t>
+  </si>
+  <si>
+    <t>Авторы</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор автора</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Patronymic</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Country_id</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор страны</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Birth_date</t>
+  </si>
+  <si>
+    <t>Посетители</t>
+  </si>
+  <si>
+    <t>Экскурсоводы</t>
+  </si>
+  <si>
+    <t>Посещения</t>
+  </si>
+  <si>
+    <t>Экскурсии</t>
+  </si>
+  <si>
+    <t>Категория экспоната</t>
+  </si>
+  <si>
+    <t>Место размещения</t>
+  </si>
+  <si>
+    <t>Прейскурант</t>
+  </si>
+  <si>
+    <t>Сотрудники музея</t>
+  </si>
+  <si>
+    <t>Дата обнаружения</t>
+  </si>
+  <si>
+    <t>Дата создания</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор категории экспоната</t>
+  </si>
+  <si>
+    <t>Дата поступления в музей</t>
+  </si>
+  <si>
+    <t>Дата изъятия из музея</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Краткое описание экспоната</t>
+  </si>
+  <si>
+    <t>Material_id</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор материала</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Материалы</t>
+  </si>
+  <si>
+    <t>Страны</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +201,22 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -343,14 +539,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Museum_database.xlsx
+++ b/Museum_database.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Музей" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="97">
   <si>
     <t>Зал (помещение)</t>
   </si>
@@ -126,18 +126,9 @@
     <t>Birth_date</t>
   </si>
   <si>
-    <t>Посетители</t>
-  </si>
-  <si>
     <t>Экскурсоводы</t>
   </si>
   <si>
-    <t>Посещения</t>
-  </si>
-  <si>
-    <t>Экскурсии</t>
-  </si>
-  <si>
     <t>Категория экспоната</t>
   </si>
   <si>
@@ -187,6 +178,135 @@
   </si>
   <si>
     <t>Страны</t>
+  </si>
+  <si>
+    <t>Guide_id</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Artifact_category</t>
+  </si>
+  <si>
+    <t>Spot_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор места экспоната</t>
+  </si>
+  <si>
+    <t>Spot_numb</t>
+  </si>
+  <si>
+    <t>Номер места экспоната</t>
+  </si>
+  <si>
+    <t>Staff_id</t>
+  </si>
+  <si>
+    <t>Artifact_material</t>
+  </si>
+  <si>
+    <t>Материал экспоната</t>
+  </si>
+  <si>
+    <t>Country_name</t>
+  </si>
+  <si>
+    <t>Название страны</t>
+  </si>
+  <si>
+    <t>Телефоны сотрудников</t>
+  </si>
+  <si>
+    <t>Phone_number</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор телефона</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор экскурсовода</t>
+  </si>
+  <si>
+    <t>Телефоны экскурсоводов</t>
+  </si>
+  <si>
+    <t>Ticket_id</t>
+  </si>
+  <si>
+    <t>Ticket_Type_id</t>
+  </si>
+  <si>
+    <t>Тип билета</t>
+  </si>
+  <si>
+    <t>Ticket_price</t>
+  </si>
+  <si>
+    <t>Стоимость билета</t>
+  </si>
+  <si>
+    <t>Билет</t>
+  </si>
+  <si>
+    <t>Ticket_numb</t>
+  </si>
+  <si>
+    <t>Номер билета</t>
+  </si>
+  <si>
+    <t>Sale_time</t>
+  </si>
+  <si>
+    <t>Time Stamp</t>
+  </si>
+  <si>
+    <t>Время отпуска билета</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор типа билета</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор билета</t>
+  </si>
+  <si>
+    <t>Phone_stuff_id</t>
+  </si>
+  <si>
+    <t>Phone_guide_id</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор сотрудника</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Экскурсия</t>
+  </si>
+  <si>
+    <t>Excursion_id</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор экскурсии</t>
+  </si>
+  <si>
+    <t>Start_time</t>
+  </si>
+  <si>
+    <t>End_time</t>
+  </si>
+  <si>
+    <t>Время начала экскурсии</t>
+  </si>
+  <si>
+    <t>Время конца экскурсии</t>
   </si>
 </sst>
 </file>
@@ -252,6 +372,824 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Правая круглая скобка 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7654636" y="3931227"/>
+          <a:ext cx="173182" cy="6459682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259773</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Правая круглая скобка 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7654636" y="2372591"/>
+          <a:ext cx="259773" cy="13923818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3099954</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Правая круглая скобка 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7637318" y="2978727"/>
+          <a:ext cx="363682" cy="1887682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3099954</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Правая круглая скобка 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7637318" y="3342409"/>
+          <a:ext cx="450273" cy="5732318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Правая круглая скобка 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7654636" y="3169227"/>
+          <a:ext cx="606137" cy="14062364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Правая круглая скобка 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7654636" y="5818909"/>
+          <a:ext cx="779319" cy="11447318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Правая круглая скобка 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7654636" y="658091"/>
+          <a:ext cx="952500" cy="9923318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3099954</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Правая круглая скобка 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7637318" y="11499273"/>
+          <a:ext cx="1229591" cy="1558636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Правая круглая скобка 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7654636" y="14962909"/>
+          <a:ext cx="1524000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Правая круглая скобка 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7654636" y="7914409"/>
+          <a:ext cx="1801091" cy="11811000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Правая круглая скобка 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="13401675"/>
+          <a:ext cx="2162175" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Правая круглая скобка 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7701643" y="14219464"/>
+          <a:ext cx="2136321" cy="4748893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Правая круглая скобка 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7688036" y="6953250"/>
+          <a:ext cx="2449285" cy="13511893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Правая круглая скобка 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7688036" y="6939643"/>
+          <a:ext cx="2789464" cy="14899821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,15 +1477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E51"/>
+  <dimension ref="B2:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,7 +1600,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -670,12 +1609,12 @@
         <v>500</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -684,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -698,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -712,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -731,7 +1670,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -740,26 +1679,26 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -768,210 +1707,1130 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
         <v>35</v>
       </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
+      <c r="E27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>54</v>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" t="s">
-        <v>14</v>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>100</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="2:5">
+      <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>100</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>100</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="1">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+      <c r="E69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>35</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="1">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1">
+        <v>100</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1">
+        <v>100</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+      <c r="E93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1">
+        <v>100</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2" t="s">
-        <v>56</v>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>30</v>
+      </c>
+      <c r="E101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1">
+        <v>100</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="1">
+        <v>100</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>94</v>
+      </c>
+      <c r="C117" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
